--- a/_Control del Proyecto/PorcentajeProyecto_V3.0.1.xlsx
+++ b/_Control del Proyecto/PorcentajeProyecto_V3.0.1.xlsx
@@ -809,7 +809,7 @@
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="25">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C3" s="26"/>
       <c r="E3" s="5">
@@ -866,12 +866,12 @@
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="25">
         <f>B3+E3+F3+G3+H3+I4</f>
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C7" s="26"/>
       <c r="G7" s="13">
         <f xml:space="preserve"> B7</f>
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>0</v>
@@ -885,7 +885,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="15">
         <f>(G7*H6)/G6</f>
-        <v>86.754966887417226</v>
+        <v>92.715231788079464</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
